--- a/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLHForGradation.xlsx
+++ b/DongAERP/Content/Report/ReportHSDetailt/ReportHSDetailtByPartnerLHForGradation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DongAERP\DongAERP\Content\Report\ReportHSDetailt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B5D04A-170A-447F-9FE7-3720D52E37AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9574622F-8F0C-4571-8E10-BF3C1681B33C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDADBC8A-6B6C-45FD-98E5-87326587A42E}"/>
   </bookViews>
@@ -33,13 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
-  <si>
-    <t>Đơn vị:</t>
-  </si>
-  <si>
-    <t>BÁO CÁO TỔNG HỢP - THEO TỪNG THỊ TRƯỜNG</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>STT</t>
   </si>
@@ -47,22 +41,22 @@
     <t>Đối tác</t>
   </si>
   <si>
-    <t>Doanh số chi quầy</t>
-  </si>
-  <si>
-    <t>Doanh số chi nhà</t>
-  </si>
-  <si>
-    <t>Tổng doanh số</t>
-  </si>
-  <si>
-    <t>Doanh số chuyển khoản</t>
-  </si>
-  <si>
     <t>Tăng /Giảm</t>
   </si>
   <si>
-    <t>Quy USD</t>
+    <t>Hồ sơ chi quầy</t>
+  </si>
+  <si>
+    <t>Hồ sơ chi nhà</t>
+  </si>
+  <si>
+    <t>Hồ sơ chuyển khoản</t>
+  </si>
+  <si>
+    <t>Tổng</t>
+  </si>
+  <si>
+    <t>BÁO CÁO CHI TIẾT - THEO ĐỐI TÁC - SO SÁNH</t>
   </si>
 </sst>
 </file>
@@ -207,34 +201,34 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -553,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B6D35-F82E-4989-A479-5B01F28891A5}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:O6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,19 +573,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
@@ -601,17 +595,17 @@
       <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -627,40 +621,36 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="M5" s="5"/>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="1"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>2</v>
-      </c>
       <c r="C6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="17" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="17" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="19"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
@@ -668,27 +658,27 @@
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16" t="s">
-        <v>8</v>
+      <c r="B7" s="12"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -749,14 +739,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
